--- a/TFET2/Capacitancias.xlsx
+++ b/TFET2/Capacitancias.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\becahp\UnB\MATLAB\TFET2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76449BB0-B7D0-4AC8-99AF-ED538972D94A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7100" xr2:uid="{65445210-6738-4FEC-9587-286C69F8E05C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7100" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cap" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="32">
   <si>
     <t>C_s_s</t>
   </si>
@@ -112,12 +112,21 @@
   </si>
   <si>
     <t>tfet</t>
+  </si>
+  <si>
+    <t>Teste de capacitância pelo z do nanotubo</t>
+  </si>
+  <si>
+    <t>50e-9 a 50e-9</t>
+  </si>
+  <si>
+    <t>500e-9 a 500e-9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -472,11 +481,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93C3D9EE-59FE-4EB9-80F3-9DFE3C2E4A98}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:Z11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -853,4 +862,185 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="2">
+        <v>7.4686716260000002E-7</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1.545064125E-12</v>
+      </c>
+      <c r="D3" s="2">
+        <v>7.2575049579999995E-7</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2.069587419E-8</v>
+      </c>
+      <c r="F3" s="2">
+        <v>4.192475087E-10</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1.545064125E-12</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1.639685078E-7</v>
+      </c>
+      <c r="I3" s="2">
+        <v>8.4222069180000001E-11</v>
+      </c>
+      <c r="J3" s="2">
+        <v>3.9201762930000003E-8</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1.2468097780000001E-7</v>
+      </c>
+      <c r="L3" s="2">
+        <v>7.2575049579999995E-7</v>
+      </c>
+      <c r="M3" s="2">
+        <v>8.4222069180000001E-11</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1.0470343319999999E-6</v>
+      </c>
+      <c r="O3" s="2">
+        <v>4.1675912180000001E-8</v>
+      </c>
+      <c r="P3" s="2">
+        <v>2.7952370240000002E-7</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>2.069587419E-8</v>
+      </c>
+      <c r="R3" s="2">
+        <v>3.9201762930000003E-8</v>
+      </c>
+      <c r="S3" s="2">
+        <v>4.1675912180000001E-8</v>
+      </c>
+      <c r="T3" s="2">
+        <v>1.67577884E-7</v>
+      </c>
+      <c r="U3" s="2">
+        <v>6.6004334740000005E-8</v>
+      </c>
+      <c r="V3" s="2">
+        <v>4.192475087E-10</v>
+      </c>
+      <c r="W3" s="2">
+        <v>1.2468097780000001E-7</v>
+      </c>
+      <c r="X3" s="2">
+        <v>2.7952370240000002E-7</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>6.6004334740000005E-8</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>4.706282624E-7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="2">
+        <v>7.4686716259999994E-8</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1.5450641249999999E-13</v>
+      </c>
+      <c r="D4" s="2">
+        <v>7.2575049580000006E-8</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2.069587419E-9</v>
+      </c>
+      <c r="F4" s="2">
+        <v>4.1924750870000003E-11</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1.5450641249999999E-13</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1.639685078E-8</v>
+      </c>
+      <c r="I4" s="2">
+        <v>8.4222069170000004E-12</v>
+      </c>
+      <c r="J4" s="2">
+        <v>3.9201762930000003E-9</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1.246809778E-8</v>
+      </c>
+      <c r="L4" s="2">
+        <v>7.2575049580000006E-8</v>
+      </c>
+      <c r="M4" s="2">
+        <v>8.4222069170000004E-12</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1.0470343319999999E-7</v>
+      </c>
+      <c r="O4" s="2">
+        <v>4.1675912180000003E-9</v>
+      </c>
+      <c r="P4" s="2">
+        <v>2.7952370239999999E-8</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>2.069587419E-9</v>
+      </c>
+      <c r="R4" s="2">
+        <v>3.9201762930000003E-9</v>
+      </c>
+      <c r="S4" s="2">
+        <v>4.1675912180000003E-9</v>
+      </c>
+      <c r="T4" s="2">
+        <v>1.6757788399999999E-8</v>
+      </c>
+      <c r="U4" s="2">
+        <v>6.6004334739999998E-9</v>
+      </c>
+      <c r="V4" s="2">
+        <v>4.1924750870000003E-11</v>
+      </c>
+      <c r="W4" s="2">
+        <v>1.246809778E-8</v>
+      </c>
+      <c r="X4" s="2">
+        <v>2.7952370239999999E-8</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>6.6004334739999998E-9</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>4.7062826240000003E-8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>